--- a/data/trans_bre/P19C04-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P19C04-Clase-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>-0.1387783941334667</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.4469136926448412</v>
+        <v>-0.4469136926448413</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.40442617431249</v>
+        <v>-10.33146604047138</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-8.075641434483012</v>
+        <v>-8.294331643627794</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.377479307692115</v>
+        <v>-5.376009634540988</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-6.733545384422782</v>
+        <v>-6.523600861139831</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.6912446263362524</v>
+        <v>-0.6733532501435284</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5162795994113937</v>
+        <v>-0.5103264424537196</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.5089284695725376</v>
+        <v>-0.505659940795822</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.6440631115065597</v>
+        <v>-0.641645249116001</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-1.143089676149993</v>
+        <v>-1.136611396297577</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.170385807627747</v>
+        <v>2.709003883555474</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.803875642412527</v>
+        <v>2.956629919506357</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-1.098724720503315</v>
+        <v>-0.9538836087776034</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.08311604424706261</v>
+        <v>-0.08359015988059601</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1961443596944677</v>
+        <v>0.2590144799566175</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4257834141490382</v>
+        <v>0.4829596803727063</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.1418370016588321</v>
+        <v>-0.1349887310713157</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-6.535814251762946</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-4.254156936531857</v>
+        <v>-4.254156936531853</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.5073862941108997</v>
@@ -749,7 +749,7 @@
         <v>-0.5181380725075656</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.4208113480752772</v>
+        <v>-0.420811348075277</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-12.79915746703222</v>
+        <v>-13.22560037381147</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-9.509995176293078</v>
+        <v>-9.33367924642425</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-11.34133438710194</v>
+        <v>-11.15314005688148</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-8.225462428429545</v>
+        <v>-7.846946455890145</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7002723884656209</v>
+        <v>-0.709788270568886</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.5404784764527856</v>
+        <v>-0.5272682880611684</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.7267324093626653</v>
+        <v>-0.7275372094230297</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6462383048152772</v>
+        <v>-0.6253247596178799</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-2.436258005598953</v>
+        <v>-2.356271909639812</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.490920920627765</v>
+        <v>1.417307168229409</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-1.648768778975849</v>
+        <v>-1.664302636617443</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-0.7340316877300839</v>
+        <v>-1.045169423624489</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1683683642005984</v>
+        <v>-0.1850915161212253</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1317231582761019</v>
+        <v>0.1222426788913594</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1500601512035408</v>
+        <v>-0.138919211172971</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.07861440552840777</v>
+        <v>-0.1027006803367162</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-2.509373394938335</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-5.317837050499617</v>
+        <v>-5.317837050499619</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.3593992556465593</v>
@@ -849,7 +849,7 @@
         <v>-0.1387703531111776</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.338039421994479</v>
+        <v>-0.3380394219944791</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-14.33578601149281</v>
+        <v>-14.43652633979252</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-20.26626320640182</v>
+        <v>-21.00855048902221</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.309057778795719</v>
+        <v>-9.655588523191762</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-10.10905434496348</v>
+        <v>-10.52838711254053</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.6161593319845002</v>
+        <v>-0.6149653080218666</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.7220088349604672</v>
+        <v>-0.7250713705136391</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4735469897463435</v>
+        <v>-0.4854111411453689</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.5691589262539383</v>
+        <v>-0.5798675765514244</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-0.5322548539647212</v>
+        <v>0.525663174432962</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-8.358469212568135</v>
+        <v>-9.195725485745148</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.834240473506346</v>
+        <v>6.070985098107801</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.3354020499125489</v>
+        <v>0.05476270407213173</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.0146656213862332</v>
+        <v>0.03666244852505585</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.3615209006736521</v>
+        <v>-0.3744066060952755</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3651237835798153</v>
+        <v>0.375965640531283</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.008389513900872239</v>
+        <v>0.007764181208851577</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-13.43530648708132</v>
+        <v>-13.56443779399124</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-20.86562324740137</v>
+        <v>-20.83954446639108</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-12.76486029387338</v>
+        <v>-12.84791493263621</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-11.22206457217811</v>
+        <v>-11.28873404458911</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5038760791057876</v>
+        <v>-0.5017008202570986</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6106105741509604</v>
+        <v>-0.6118174475954127</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5422628223261522</v>
+        <v>-0.5462388204597092</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5388772235001139</v>
+        <v>-0.5374208230082435</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-4.84300261535469</v>
+        <v>-4.828849158179465</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-12.6057054112603</v>
+        <v>-12.53409899557725</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-5.24864028264536</v>
+        <v>-5.120622323371432</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>-5.06751746815706</v>
+        <v>-5.027119492631885</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2024662498859737</v>
+        <v>-0.2082447837836361</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.4137472496209524</v>
+        <v>-0.41498963492359</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.2616784661972452</v>
+        <v>-0.2621214692724275</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2835653908573153</v>
+        <v>-0.2871678630306493</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-12.13498754709483</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-11.13224031959714</v>
+        <v>-11.13224031959715</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1844450578396028</v>
@@ -1049,7 +1049,7 @@
         <v>-0.4391504751790831</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3838370963846247</v>
+        <v>-0.3838370963846248</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-12.03381203255328</v>
+        <v>-11.21838495502949</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-15.11204371658072</v>
+        <v>-15.2813173593342</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-17.27012494130327</v>
+        <v>-17.276547827708</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-16.03087455871062</v>
+        <v>-16.02490624849093</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4096942590244568</v>
+        <v>-0.3916995982525954</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.4070716623529865</v>
+        <v>-0.4084860404661058</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.5543119276625097</v>
+        <v>-0.5621899187407811</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.4901103722541599</v>
+        <v>-0.4895034832642703</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.419625378878977</v>
+        <v>2.475331669883725</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-3.468149015884041</v>
+        <v>-3.606500362313135</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-7.011540382700095</v>
+        <v>-6.539380336477684</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-6.326339496569017</v>
+        <v>-6.822130728483114</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.06610460071354395</v>
+        <v>0.1320152352239623</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.1171297308945611</v>
+        <v>-0.1181357641375999</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.2787303372369996</v>
+        <v>-0.2760807666181692</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.2543723106944631</v>
+        <v>-0.2569890536030051</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>7.052991965762036</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.903939586249718</v>
+        <v>5.903939586249715</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6758132316125756</v>
@@ -1149,7 +1149,7 @@
         <v>0.7542337369811971</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.8254194708018628</v>
+        <v>0.8254194708018625</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7434132281844842</v>
+        <v>1.364407929848038</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.487313100867896</v>
+        <v>6.333912839512282</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2.192880611271794</v>
+        <v>1.738902768169382</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-0.4865090943318917</v>
+        <v>-1.71883917396751</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05229844913845136</v>
+        <v>0.07779982389342839</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5051697034913516</v>
+        <v>0.4506581525700152</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1330178724807964</v>
+        <v>0.1172601852752728</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.04210660852399147</v>
+        <v>-0.1260547943719529</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>10.83320886085087</v>
+        <v>10.85344377567295</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>15.96765392402791</v>
+        <v>15.35145815158704</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>11.68369448133037</v>
+        <v>11.31873566000398</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>10.36167398548107</v>
+        <v>10.17614542143993</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.725345752849439</v>
+        <v>1.670294381074826</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>2.6237993471494</v>
+        <v>2.352472987237499</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.831351591401815</v>
+        <v>1.656384435530382</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.167882596829084</v>
+        <v>3.028939218277332</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-4.834383497737324</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-4.751247894788767</v>
+        <v>-4.751247894788765</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.2640317630995013</v>
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.262261644627093</v>
+        <v>-7.282558624162143</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-9.199005005152459</v>
+        <v>-9.234264148112787</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.910091302609775</v>
+        <v>-6.86789884655189</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.448774228358885</v>
+        <v>-6.361697471795352</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.3415637781824368</v>
+        <v>-0.345048342939614</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3542103311605648</v>
+        <v>-0.3566427563903335</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.3615050407301967</v>
+        <v>-0.365322088288301</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3699632227791363</v>
+        <v>-0.3642554691899629</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-3.040438412342243</v>
+        <v>-3.124173116050057</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.763714911726452</v>
+        <v>-4.872498919951648</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-2.713994658332363</v>
+        <v>-2.992747143536311</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-3.28568888258862</v>
+        <v>-3.085601449650059</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.1594490275432247</v>
+        <v>-0.1607115155212093</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.2033430539594189</v>
+        <v>-0.2068233704796664</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.1581414310379724</v>
+        <v>-0.1764547201397647</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.2120505441020446</v>
+        <v>-0.2049799505435249</v>
       </c>
     </row>
     <row r="25">
